--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2472245.478763637</v>
+        <v>-2472892.451304821</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681855</v>
+        <v>590120.9651681859</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>68.39702598806994</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>68.3970259880698</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>60.24410049029183</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>68.3970259880698</v>
+        <v>68.39702598806994</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>60.24410049029195</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>68.39702598806994</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>68.3970259880698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.191472723087824</v>
+        <v>6.191472723087881</v>
       </c>
       <c r="V12" t="n">
-        <v>13.45870707964391</v>
+        <v>13.45870707964397</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998883</v>
+        <v>31.53932278998889</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362324</v>
+        <v>0.4251038644362861</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938138</v>
+        <v>9.028675106938193</v>
       </c>
       <c r="U13" t="n">
-        <v>67.5913472788246</v>
+        <v>67.59134727882466</v>
       </c>
       <c r="V13" t="n">
-        <v>34.48632710692794</v>
+        <v>34.486327106928</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740432</v>
+        <v>67.64255292740438</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298044</v>
+        <v>7.690335972298101</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2986499077570102</v>
+        <v>0.298649907757067</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>68.39702598806998</v>
+        <v>60.24410049029194</v>
       </c>
       <c r="D14" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="Y14" t="n">
-        <v>60.24410049029203</v>
+        <v>68.39702598806991</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087853</v>
+        <v>6.191472723087881</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964394</v>
+        <v>13.45870707964397</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998886</v>
+        <v>31.53932278998889</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644362608</v>
+        <v>0.4251038644362861</v>
       </c>
       <c r="T16" t="n">
-        <v>9.028675106938167</v>
+        <v>9.028675106938193</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59134727882463</v>
+        <v>67.59134727882466</v>
       </c>
       <c r="V16" t="n">
-        <v>34.48632710692797</v>
+        <v>34.486327106928</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740435</v>
+        <v>67.64255292740438</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298072</v>
+        <v>7.690335972298101</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2986499077570386</v>
+        <v>0.298649907757067</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.18629299084046</v>
+        <v>33.18629299084045</v>
       </c>
       <c r="C17" t="n">
-        <v>16.45497867838828</v>
+        <v>16.45497867838804</v>
       </c>
       <c r="D17" t="n">
         <v>6.074615754043805</v>
@@ -1856,7 +1856,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>20.33148213061473</v>
+        <v>20.3314821306148</v>
       </c>
       <c r="Y20" t="n">
         <v>36.15695475068122</v>
@@ -2330,7 +2330,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G23" t="n">
-        <v>63.87918891521429</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U28" t="n">
         <v>65.0262529514072</v>
@@ -2804,7 +2804,7 @@
         <v>186.2787451931122</v>
       </c>
       <c r="G29" t="n">
-        <v>193.3941876283402</v>
+        <v>193.3941876283403</v>
       </c>
       <c r="H29" t="n">
         <v>112.566723118609</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520738</v>
       </c>
       <c r="U31" t="n">
         <v>65.0262529514072</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.7012917039664</v>
+        <v>162.7012917039665</v>
       </c>
       <c r="C32" t="n">
         <v>145.969977391514</v>
@@ -3035,16 +3035,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E32" t="n">
-        <v>162.1029174678588</v>
+        <v>162.1029174678589</v>
       </c>
       <c r="F32" t="n">
-        <v>186.2787451931122</v>
+        <v>186.2787451931123</v>
       </c>
       <c r="G32" t="n">
         <v>193.3941876283403</v>
       </c>
       <c r="H32" t="n">
-        <v>112.566723118609</v>
+        <v>112.5667231186091</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007088</v>
       </c>
       <c r="V32" t="n">
-        <v>107.5181032350907</v>
+        <v>107.5181032350908</v>
       </c>
       <c r="W32" t="n">
         <v>129.514998713126</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670455</v>
       </c>
       <c r="V33" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222655</v>
       </c>
       <c r="W33" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257146</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520739</v>
+        <v>6.463580779520766</v>
       </c>
       <c r="U34" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140723</v>
       </c>
       <c r="V34" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951058</v>
       </c>
       <c r="W34" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998695</v>
       </c>
       <c r="X34" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880674</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C35" t="n">
         <v>123.8503791869722</v>
@@ -3272,16 +3272,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E35" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F35" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G35" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H35" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.307410325529073</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V35" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W35" t="n">
         <v>107.3954005085842</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V37" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W37" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>140.5816934994247</v>
+        <v>140.5816934994246</v>
       </c>
       <c r="C38" t="n">
         <v>123.8503791869722</v>
@@ -3509,16 +3509,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E38" t="n">
-        <v>139.9833192633171</v>
+        <v>139.983319263317</v>
       </c>
       <c r="F38" t="n">
-        <v>164.1591469885705</v>
+        <v>164.1591469885704</v>
       </c>
       <c r="G38" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H38" t="n">
-        <v>90.44712491406727</v>
+        <v>90.44712491406725</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325529077</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V38" t="n">
-        <v>85.39850503054896</v>
+        <v>85.39850503054893</v>
       </c>
       <c r="W38" t="n">
         <v>107.3954005085842</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>6.854630258029658</v>
+        <v>6.85463025802963</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>42.90665474686543</v>
+        <v>42.9066547468654</v>
       </c>
       <c r="V40" t="n">
-        <v>9.801634574968773</v>
+        <v>9.801634574968745</v>
       </c>
       <c r="W40" t="n">
-        <v>42.95786039544515</v>
+        <v>42.95786039544512</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>140.5816934994246</v>
+        <v>140.5816934994247</v>
       </c>
       <c r="C44" t="n">
         <v>123.8503791869722</v>
@@ -3983,16 +3983,16 @@
         <v>113.470016262628</v>
       </c>
       <c r="E44" t="n">
-        <v>139.983319263317</v>
+        <v>139.9833192633171</v>
       </c>
       <c r="F44" t="n">
-        <v>164.1591469885704</v>
+        <v>164.1591469885705</v>
       </c>
       <c r="G44" t="n">
-        <v>171.2745894237984</v>
+        <v>171.2745894237985</v>
       </c>
       <c r="H44" t="n">
-        <v>90.44712491406725</v>
+        <v>90.44712491406727</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.307410325529045</v>
+        <v>8.307410325529073</v>
       </c>
       <c r="V44" t="n">
-        <v>85.39850503054893</v>
+        <v>85.39850503054896</v>
       </c>
       <c r="W44" t="n">
         <v>107.3954005085842</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>6.85463025802963</v>
+        <v>6.854630258029658</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>42.9066547468654</v>
+        <v>42.90665474686543</v>
       </c>
       <c r="V46" t="n">
-        <v>9.801634574968745</v>
+        <v>9.801634574968773</v>
       </c>
       <c r="W46" t="n">
-        <v>42.95786039544512</v>
+        <v>42.95786039544515</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.5001989138248</v>
+        <v>143.6475721559546</v>
       </c>
       <c r="C11" t="n">
-        <v>204.5001989138248</v>
+        <v>74.55966711750008</v>
       </c>
       <c r="D11" t="n">
-        <v>204.5001989138248</v>
+        <v>74.55966711750008</v>
       </c>
       <c r="E11" t="n">
-        <v>135.4122938753705</v>
+        <v>74.55966711750008</v>
       </c>
       <c r="F11" t="n">
-        <v>74.55966711749994</v>
+        <v>74.55966711750008</v>
       </c>
       <c r="G11" t="n">
-        <v>74.55966711749994</v>
+        <v>74.55966711750008</v>
       </c>
       <c r="H11" t="n">
-        <v>5.471762079045584</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439189</v>
+        <v>35.56706215439186</v>
       </c>
       <c r="J11" t="n">
-        <v>103.280117882581</v>
+        <v>35.56706215439186</v>
       </c>
       <c r="K11" t="n">
-        <v>103.280117882581</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="L11" t="n">
-        <v>103.280117882581</v>
+        <v>161.5659892339443</v>
       </c>
       <c r="M11" t="n">
-        <v>158.7206970049234</v>
+        <v>167.7946507613857</v>
       </c>
       <c r="N11" t="n">
-        <v>158.7206970049234</v>
+        <v>167.7946507613857</v>
       </c>
       <c r="O11" t="n">
-        <v>158.7206970049234</v>
+        <v>167.7946507613857</v>
       </c>
       <c r="P11" t="n">
-        <v>215.20562646817</v>
+        <v>224.2795802246324</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.20562646817</v>
+        <v>273.5881039522798</v>
       </c>
       <c r="R11" t="n">
-        <v>251.0794834347996</v>
+        <v>273.5881039522798</v>
       </c>
       <c r="S11" t="n">
-        <v>273.5881039522792</v>
+        <v>273.5881039522798</v>
       </c>
       <c r="T11" t="n">
-        <v>273.5881039522792</v>
+        <v>273.5881039522798</v>
       </c>
       <c r="U11" t="n">
-        <v>273.5881039522792</v>
+        <v>273.5881039522798</v>
       </c>
       <c r="V11" t="n">
-        <v>273.5881039522792</v>
+        <v>212.7354771944091</v>
       </c>
       <c r="W11" t="n">
-        <v>273.5881039522792</v>
+        <v>143.6475721559546</v>
       </c>
       <c r="X11" t="n">
-        <v>273.5881039522792</v>
+        <v>143.6475721559546</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.5001989138248</v>
+        <v>143.6475721559546</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="C12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="D12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="E12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="F12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="G12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="H12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="I12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="J12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="K12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="L12" t="n">
-        <v>221.8815356768038</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="M12" t="n">
-        <v>221.8815356768038</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="N12" t="n">
-        <v>221.8815356768038</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="O12" t="n">
-        <v>221.8815356768038</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="P12" t="n">
-        <v>221.8815356768038</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="Q12" t="n">
-        <v>221.8815356768038</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="R12" t="n">
-        <v>221.8815356768038</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="S12" t="n">
-        <v>273.5881039522792</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="T12" t="n">
-        <v>273.5881039522792</v>
+        <v>57.17833035452109</v>
       </c>
       <c r="U12" t="n">
-        <v>267.3340911006753</v>
+        <v>50.92431750291718</v>
       </c>
       <c r="V12" t="n">
-        <v>253.7394374848734</v>
+        <v>37.32966388711518</v>
       </c>
       <c r="W12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="X12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="Y12" t="n">
-        <v>221.8815356768038</v>
+        <v>5.471762079045596</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.471762079045584</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="C13" t="n">
-        <v>5.471762079045584</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="D13" t="n">
-        <v>5.471762079045584</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="E13" t="n">
-        <v>5.471762079045584</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="F13" t="n">
-        <v>5.471762079045584</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="G13" t="n">
-        <v>5.471762079045584</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="H13" t="n">
-        <v>5.471762079045584</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="I13" t="n">
-        <v>5.471762079045584</v>
+        <v>5.471762079045596</v>
       </c>
       <c r="J13" t="n">
-        <v>5.471762079045584</v>
+        <v>73.18481780723484</v>
       </c>
       <c r="K13" t="n">
-        <v>5.471762079045584</v>
+        <v>140.8978735354241</v>
       </c>
       <c r="L13" t="n">
-        <v>73.18481780723469</v>
+        <v>194.525289518022</v>
       </c>
       <c r="M13" t="n">
-        <v>140.8978735354238</v>
+        <v>194.525289518022</v>
       </c>
       <c r="N13" t="n">
-        <v>140.8978735354238</v>
+        <v>194.525289518022</v>
       </c>
       <c r="O13" t="n">
-        <v>140.8978735354238</v>
+        <v>194.525289518022</v>
       </c>
       <c r="P13" t="n">
-        <v>140.8978735354238</v>
+        <v>194.525289518022</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.525289518022</v>
       </c>
       <c r="R13" t="n">
-        <v>194.5252895180217</v>
+        <v>194.525289518022</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751568</v>
+        <v>194.0958916751571</v>
       </c>
       <c r="T13" t="n">
-        <v>184.9760178297647</v>
+        <v>184.976017829765</v>
       </c>
       <c r="U13" t="n">
-        <v>116.7019296693358</v>
+        <v>116.701929669336</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395405</v>
+        <v>81.86725582395422</v>
       </c>
       <c r="W13" t="n">
-        <v>13.5414447861719</v>
+        <v>13.54144478617203</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537514</v>
+        <v>5.773428652537583</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.471762079045584</v>
+        <v>5.471762079045596</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.6475721559547</v>
+        <v>66.32438883691624</v>
       </c>
       <c r="C14" t="n">
-        <v>74.55966711750014</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D14" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E14" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F14" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G14" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H14" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I14" t="n">
-        <v>5.471762079045599</v>
+        <v>35.56706215439186</v>
       </c>
       <c r="J14" t="n">
-        <v>5.471762079045599</v>
+        <v>35.56706215439186</v>
       </c>
       <c r="K14" t="n">
-        <v>32.7217699253718</v>
+        <v>95.4883333346658</v>
       </c>
       <c r="L14" t="n">
-        <v>91.00764127673492</v>
+        <v>153.774204686029</v>
       </c>
       <c r="M14" t="n">
-        <v>91.00764127673492</v>
+        <v>153.774204686029</v>
       </c>
       <c r="N14" t="n">
-        <v>91.00764127673492</v>
+        <v>205.8750482240904</v>
       </c>
       <c r="O14" t="n">
-        <v>158.7206970049242</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="P14" t="n">
-        <v>215.2056264681708</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="Q14" t="n">
-        <v>215.2056264681708</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="R14" t="n">
-        <v>251.0794834348004</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S14" t="n">
-        <v>273.5881039522799</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T14" t="n">
-        <v>273.5881039522799</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U14" t="n">
-        <v>273.5881039522799</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V14" t="n">
-        <v>204.5001989138254</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W14" t="n">
-        <v>204.5001989138254</v>
+        <v>204.5001989138252</v>
       </c>
       <c r="X14" t="n">
-        <v>204.5001989138254</v>
+        <v>135.4122938753707</v>
       </c>
       <c r="Y14" t="n">
-        <v>143.6475721559547</v>
+        <v>66.32438883691624</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.471762079045599</v>
+        <v>235.7300460848217</v>
       </c>
       <c r="C15" t="n">
-        <v>5.471762079045599</v>
+        <v>235.7300460848217</v>
       </c>
       <c r="D15" t="n">
-        <v>5.471762079045599</v>
+        <v>235.7300460848217</v>
       </c>
       <c r="E15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="F15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="G15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="H15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="I15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="J15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="K15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="L15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="M15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="N15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="O15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="P15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="R15" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452101</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452101</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291712</v>
+        <v>267.3340911006757</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711515</v>
+        <v>253.7394374848737</v>
       </c>
       <c r="W15" t="n">
-        <v>5.471762079045599</v>
+        <v>221.8815356768041</v>
       </c>
       <c r="X15" t="n">
-        <v>5.471762079045599</v>
+        <v>235.7300460848217</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.471762079045599</v>
+        <v>235.7300460848217</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.471762079045599</v>
+        <v>84.53457651330316</v>
       </c>
       <c r="C16" t="n">
-        <v>5.471762079045599</v>
+        <v>84.53457651330316</v>
       </c>
       <c r="D16" t="n">
-        <v>73.18481780723489</v>
+        <v>84.53457651330316</v>
       </c>
       <c r="E16" t="n">
-        <v>73.18481780723489</v>
+        <v>84.53457651330316</v>
       </c>
       <c r="F16" t="n">
-        <v>126.8122337898325</v>
+        <v>84.53457651330316</v>
       </c>
       <c r="G16" t="n">
-        <v>126.8122337898325</v>
+        <v>94.36548292800471</v>
       </c>
       <c r="H16" t="n">
-        <v>126.8122337898325</v>
+        <v>152.3720715546856</v>
       </c>
       <c r="I16" t="n">
-        <v>194.5252895180218</v>
+        <v>220.0851272828749</v>
       </c>
       <c r="J16" t="n">
-        <v>194.5252895180218</v>
+        <v>220.0851272828749</v>
       </c>
       <c r="K16" t="n">
-        <v>194.5252895180218</v>
+        <v>220.0851272828749</v>
       </c>
       <c r="L16" t="n">
-        <v>194.5252895180218</v>
+        <v>220.0851272828749</v>
       </c>
       <c r="M16" t="n">
-        <v>194.5252895180218</v>
+        <v>220.0851272828749</v>
       </c>
       <c r="N16" t="n">
-        <v>194.5252895180218</v>
+        <v>220.0851272828749</v>
       </c>
       <c r="O16" t="n">
-        <v>194.5252895180218</v>
+        <v>220.0851272828749</v>
       </c>
       <c r="P16" t="n">
-        <v>194.5252895180218</v>
+        <v>220.0851272828749</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.5252895180218</v>
+        <v>220.0851272828749</v>
       </c>
       <c r="R16" t="n">
-        <v>194.5252895180218</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751569</v>
+        <v>273.1587061094147</v>
       </c>
       <c r="T16" t="n">
-        <v>184.9760178297648</v>
+        <v>264.0388322640226</v>
       </c>
       <c r="U16" t="n">
-        <v>116.7019296693359</v>
+        <v>195.7647441035936</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395414</v>
+        <v>160.9300702582118</v>
       </c>
       <c r="W16" t="n">
-        <v>13.54144478617197</v>
+        <v>92.6042592204296</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537556</v>
+        <v>84.83624308679515</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.471762079045599</v>
+        <v>84.53457651330316</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.0075687278996</v>
+        <v>183.0075687278994</v>
       </c>
       <c r="C17" t="n">
         <v>166.386378143669</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2504026345339</v>
+        <v>160.2504026345338</v>
       </c>
       <c r="E17" t="n">
         <v>127.3333129832885</v>
       </c>
       <c r="F17" t="n">
-        <v>69.99619532673681</v>
+        <v>69.99619532673671</v>
       </c>
       <c r="G17" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H17" t="n">
-        <v>5.471762079045599</v>
+        <v>22.25055491761735</v>
       </c>
       <c r="I17" t="n">
-        <v>5.471762079045599</v>
+        <v>48.67201024445708</v>
       </c>
       <c r="J17" t="n">
-        <v>5.471762079045599</v>
+        <v>48.67201024445708</v>
       </c>
       <c r="K17" t="n">
-        <v>5.471762079045599</v>
+        <v>48.67201024445708</v>
       </c>
       <c r="L17" t="n">
-        <v>5.471762079045599</v>
+        <v>48.67201024445708</v>
       </c>
       <c r="M17" t="n">
-        <v>5.471762079045599</v>
+        <v>48.67201024445708</v>
       </c>
       <c r="N17" t="n">
-        <v>73.18481780723489</v>
+        <v>48.67201024445708</v>
       </c>
       <c r="O17" t="n">
-        <v>73.18481780723489</v>
+        <v>48.67201024445708</v>
       </c>
       <c r="P17" t="n">
-        <v>73.18481780723489</v>
+        <v>48.67201024445708</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.1619924959014</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="R17" t="n">
-        <v>205.8750482240906</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="S17" t="n">
-        <v>273.5881039522799</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="T17" t="n">
-        <v>273.5881039522799</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="U17" t="n">
-        <v>273.5881039522799</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V17" t="n">
-        <v>273.5881039522799</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W17" t="n">
-        <v>273.58810395228</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X17" t="n">
-        <v>253.0512533152954</v>
+        <v>253.051253315295</v>
       </c>
       <c r="Y17" t="n">
-        <v>216.5290767994557</v>
+        <v>216.5290767994554</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="C18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="D18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="E18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="F18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="G18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="H18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="I18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="J18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="K18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="L18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="M18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="N18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="O18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="P18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="R18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="S18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.471762079045599</v>
+        <v>273.5881039522797</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="C19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="D19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="E19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="J19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="K19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="L19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="M19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="N19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="O19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="P19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="R19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="S19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="T19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="U19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="V19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="W19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="X19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045593</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>183.0075687278998</v>
+        <v>183.0075687278994</v>
       </c>
       <c r="C20" t="n">
-        <v>166.3863781436693</v>
+        <v>166.3863781436691</v>
       </c>
       <c r="D20" t="n">
-        <v>160.2504026345342</v>
+        <v>160.2504026345339</v>
       </c>
       <c r="E20" t="n">
-        <v>127.3333129832888</v>
+        <v>127.3333129832886</v>
       </c>
       <c r="F20" t="n">
-        <v>69.99619532673681</v>
+        <v>69.99619532673682</v>
       </c>
       <c r="G20" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H20" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I20" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J20" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K20" t="n">
-        <v>48.67201024445717</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L20" t="n">
-        <v>48.67201024445717</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M20" t="n">
-        <v>116.3850659726465</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N20" t="n">
-        <v>116.3850659726465</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O20" t="n">
-        <v>116.3850659726465</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="P20" t="n">
-        <v>116.3850659726465</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="Q20" t="n">
-        <v>116.3850659726465</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="R20" t="n">
-        <v>184.0981217008357</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="S20" t="n">
-        <v>184.0981217008357</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="T20" t="n">
-        <v>184.0981217008357</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="U20" t="n">
-        <v>251.811177429025</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V20" t="n">
-        <v>273.5881039522799</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W20" t="n">
-        <v>273.5881039522799</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X20" t="n">
-        <v>253.0512533152955</v>
+        <v>253.0512533152951</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.5290767994558</v>
+        <v>216.5290767994555</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.471762079045599</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>183.0075687278998</v>
+        <v>183.0075687278994</v>
       </c>
       <c r="C23" t="n">
-        <v>166.3863781436693</v>
+        <v>166.3863781436691</v>
       </c>
       <c r="D23" t="n">
-        <v>160.2504026345342</v>
+        <v>160.2504026345339</v>
       </c>
       <c r="E23" t="n">
-        <v>127.3333129832889</v>
+        <v>127.3333129832886</v>
       </c>
       <c r="F23" t="n">
-        <v>69.99619532673681</v>
+        <v>69.99619532673682</v>
       </c>
       <c r="G23" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H23" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I23" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J23" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K23" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L23" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M23" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N23" t="n">
-        <v>73.18481780723491</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O23" t="n">
-        <v>138.1619924959014</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P23" t="n">
-        <v>138.1619924959014</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.1619924959014</v>
+        <v>73.18481780723482</v>
       </c>
       <c r="R23" t="n">
-        <v>138.1619924959014</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="S23" t="n">
-        <v>138.1619924959014</v>
+        <v>138.1619924959012</v>
       </c>
       <c r="T23" t="n">
-        <v>205.8750482240907</v>
+        <v>205.8750482240905</v>
       </c>
       <c r="U23" t="n">
-        <v>273.58810395228</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="V23" t="n">
-        <v>273.58810395228</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="W23" t="n">
-        <v>273.58810395228</v>
+        <v>273.5881039522797</v>
       </c>
       <c r="X23" t="n">
-        <v>253.0512533152954</v>
+        <v>253.0512533152951</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.5290767994558</v>
+        <v>216.5290767994555</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="C25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="D25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="E25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="F25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="G25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="H25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="I25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="J25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="K25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="L25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="M25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="N25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="O25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="P25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="R25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="S25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="T25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="U25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="V25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="W25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="X25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.4717620790456</v>
+        <v>5.471762079045594</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I26" t="n">
-        <v>67.29938996034309</v>
+        <v>67.29938996034311</v>
       </c>
       <c r="J26" t="n">
-        <v>322.88141175434</v>
+        <v>322.8814117543401</v>
       </c>
       <c r="K26" t="n">
-        <v>385.3421263187572</v>
+        <v>322.8814117543401</v>
       </c>
       <c r="L26" t="n">
-        <v>814.3171267668199</v>
+        <v>383.7067264898465</v>
       </c>
       <c r="M26" t="n">
-        <v>888.2169926985971</v>
+        <v>812.6817269379094</v>
       </c>
       <c r="N26" t="n">
-        <v>964.2706057691418</v>
+        <v>1008.975156514305</v>
       </c>
       <c r="O26" t="n">
-        <v>1160.118497717637</v>
+        <v>1008.975156514305</v>
       </c>
       <c r="P26" t="n">
-        <v>1550.466820498385</v>
+        <v>1399.323479295054</v>
       </c>
       <c r="Q26" t="n">
-        <v>1602.109334889059</v>
+        <v>1669.770960790283</v>
       </c>
       <c r="R26" t="n">
         <v>1708.184261141055</v>
@@ -6288,40 +6288,40 @@
         <v>34.66464650085356</v>
       </c>
       <c r="E27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="F27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="G27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="H27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="I27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="J27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="K27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="L27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="M27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="N27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="O27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="P27" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="Q27" t="n">
         <v>78.59820166294284</v>
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.66464650085356</v>
+        <v>75.18675902963091</v>
       </c>
       <c r="C28" t="n">
-        <v>34.66464650085356</v>
+        <v>75.18675902963091</v>
       </c>
       <c r="D28" t="n">
-        <v>105.9541027560337</v>
+        <v>94.57537142196097</v>
       </c>
       <c r="E28" t="n">
-        <v>105.9541027560337</v>
+        <v>94.57537142196097</v>
       </c>
       <c r="F28" t="n">
-        <v>105.9541027560337</v>
+        <v>94.57537142196097</v>
       </c>
       <c r="G28" t="n">
-        <v>105.9541027560337</v>
+        <v>147.3674650986538</v>
       </c>
       <c r="H28" t="n">
-        <v>166.5001347668579</v>
+        <v>207.913497109478</v>
       </c>
       <c r="I28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="J28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="K28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="L28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="M28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="N28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="P28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="Q28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="R28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.913497109478</v>
       </c>
       <c r="S28" t="n">
         <v>210.0320876678294</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923729</v>
+        <v>980.0203689923728</v>
       </c>
       <c r="C29" t="n">
-        <v>832.575947384783</v>
+        <v>832.5759473847833</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522883</v>
+        <v>695.6167408522886</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776833</v>
+        <v>531.8764201776836</v>
       </c>
       <c r="F29" t="n">
-        <v>343.716071497772</v>
+        <v>343.7160714977722</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6458,31 +6458,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I29" t="n">
-        <v>67.29938996034309</v>
+        <v>67.29938996034311</v>
       </c>
       <c r="J29" t="n">
-        <v>67.29938996034309</v>
+        <v>322.8814117543401</v>
       </c>
       <c r="K29" t="n">
-        <v>463.5002213080315</v>
+        <v>719.0822431020285</v>
       </c>
       <c r="L29" t="n">
-        <v>665.4620543539718</v>
+        <v>1148.057243550091</v>
       </c>
       <c r="M29" t="n">
-        <v>739.361920285749</v>
+        <v>1148.057243550091</v>
       </c>
       <c r="N29" t="n">
-        <v>1168.336920733812</v>
+        <v>1148.057243550091</v>
       </c>
       <c r="O29" t="n">
-        <v>1597.311921181874</v>
+        <v>1219.064275275889</v>
       </c>
       <c r="P29" t="n">
-        <v>1656.336294029264</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q29" t="n">
-        <v>1708.184261141055</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R29" t="n">
         <v>1708.184261141055</v>
@@ -6503,7 +6503,7 @@
         <v>1463.070597286832</v>
       </c>
       <c r="X29" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y29" t="n">
         <v>1144.365108087288</v>
@@ -6522,43 +6522,43 @@
         <v>34.66464650085356</v>
       </c>
       <c r="D30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="E30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="F30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="G30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="H30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="I30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="J30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="K30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="L30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="M30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="N30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="O30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="P30" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="Q30" t="n">
         <v>78.59820166294284</v>
@@ -6604,43 +6604,43 @@
         <v>36.90842647631735</v>
       </c>
       <c r="E31" t="n">
-        <v>36.90842647631735</v>
+        <v>110.2085156494045</v>
       </c>
       <c r="F31" t="n">
-        <v>36.90842647631735</v>
+        <v>110.2085156494045</v>
       </c>
       <c r="G31" t="n">
-        <v>36.90842647631735</v>
+        <v>151.87107705593</v>
       </c>
       <c r="H31" t="n">
-        <v>97.45445848714157</v>
+        <v>151.87107705593</v>
       </c>
       <c r="I31" t="n">
-        <v>97.45445848714157</v>
+        <v>151.87107705593</v>
       </c>
       <c r="J31" t="n">
-        <v>97.45445848714157</v>
+        <v>151.87107705593</v>
       </c>
       <c r="K31" t="n">
-        <v>105.8108351705221</v>
+        <v>151.87107705593</v>
       </c>
       <c r="L31" t="n">
-        <v>105.8108351705221</v>
+        <v>151.87107705593</v>
       </c>
       <c r="M31" t="n">
-        <v>186.5153925967328</v>
+        <v>151.87107705593</v>
       </c>
       <c r="N31" t="n">
-        <v>186.5153925967328</v>
+        <v>151.87107705593</v>
       </c>
       <c r="O31" t="n">
-        <v>186.5153925967328</v>
+        <v>151.87107705593</v>
       </c>
       <c r="P31" t="n">
-        <v>186.5153925967328</v>
+        <v>151.87107705593</v>
       </c>
       <c r="Q31" t="n">
-        <v>207.913497109478</v>
+        <v>151.87107705593</v>
       </c>
       <c r="R31" t="n">
         <v>207.913497109478</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923732</v>
+        <v>980.0203689923731</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847833</v>
+        <v>832.5759473847831</v>
       </c>
       <c r="D32" t="n">
         <v>695.6167408522886</v>
@@ -6695,31 +6695,31 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>67.29938996034309</v>
+        <v>67.29938996034308</v>
       </c>
       <c r="J32" t="n">
-        <v>148.7795367731729</v>
+        <v>67.29938996034308</v>
       </c>
       <c r="K32" t="n">
-        <v>148.7795367731729</v>
+        <v>129.7601045247603</v>
       </c>
       <c r="L32" t="n">
-        <v>293.7765096521897</v>
+        <v>190.5854192602667</v>
       </c>
       <c r="M32" t="n">
-        <v>722.7515101002525</v>
+        <v>619.5604197083295</v>
       </c>
       <c r="N32" t="n">
-        <v>798.8051231707972</v>
+        <v>1048.535420156392</v>
       </c>
       <c r="O32" t="n">
-        <v>1227.78012361886</v>
+        <v>1379.176893474086</v>
       </c>
       <c r="P32" t="n">
-        <v>1399.323479295054</v>
+        <v>1438.201266321476</v>
       </c>
       <c r="Q32" t="n">
-        <v>1669.770960790283</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R32" t="n">
         <v>1708.184261141055</v>
@@ -6798,22 +6798,22 @@
         <v>34.66464650085356</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="R33" t="n">
-        <v>34.66464650085356</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="S33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="T33" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="U33" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246771</v>
       </c>
       <c r="V33" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779443</v>
       </c>
       <c r="W33" t="n">
         <v>34.66464650085356</v>
@@ -6838,64 +6838,64 @@
         <v>34.66464650085356</v>
       </c>
       <c r="D34" t="n">
-        <v>34.66464650085356</v>
+        <v>105.9541027560337</v>
       </c>
       <c r="E34" t="n">
-        <v>34.66464650085356</v>
+        <v>105.9541027560337</v>
       </c>
       <c r="F34" t="n">
-        <v>34.66464650085356</v>
+        <v>105.9541027560337</v>
       </c>
       <c r="G34" t="n">
-        <v>34.66464650085356</v>
+        <v>120.902628342086</v>
       </c>
       <c r="H34" t="n">
-        <v>34.66464650085356</v>
+        <v>120.902628342086</v>
       </c>
       <c r="I34" t="n">
-        <v>34.66464650085356</v>
+        <v>120.902628342086</v>
       </c>
       <c r="J34" t="n">
-        <v>120.9026283420858</v>
+        <v>120.902628342086</v>
       </c>
       <c r="K34" t="n">
-        <v>120.9026283420858</v>
+        <v>120.902628342086</v>
       </c>
       <c r="L34" t="n">
-        <v>120.9026283420858</v>
+        <v>120.902628342086</v>
       </c>
       <c r="M34" t="n">
-        <v>120.9026283420858</v>
+        <v>120.902628342086</v>
       </c>
       <c r="N34" t="n">
-        <v>120.9026283420858</v>
+        <v>120.902628342086</v>
       </c>
       <c r="O34" t="n">
-        <v>120.9026283420858</v>
+        <v>120.902628342086</v>
       </c>
       <c r="P34" t="n">
-        <v>120.9026283420858</v>
+        <v>120.902628342086</v>
       </c>
       <c r="Q34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="R34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="S34" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="T34" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935661</v>
       </c>
       <c r="U34" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042659</v>
       </c>
       <c r="V34" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300128</v>
       </c>
       <c r="W34" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335929</v>
       </c>
       <c r="X34" t="n">
         <v>34.66464650085356</v>
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767108</v>
+        <v>840.4904359767102</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585571</v>
+        <v>715.3890428585568</v>
       </c>
       <c r="D35" t="n">
-        <v>600.7728648154985</v>
+        <v>600.7728648154982</v>
       </c>
       <c r="E35" t="n">
-        <v>459.3755726303297</v>
+        <v>459.3755726303294</v>
       </c>
       <c r="F35" t="n">
-        <v>293.5582524398545</v>
+        <v>293.5582524398542</v>
       </c>
       <c r="G35" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H35" t="n">
         <v>29.19288442180797</v>
       </c>
       <c r="I35" t="n">
-        <v>83.72603010379386</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J35" t="n">
-        <v>195.1283464346864</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K35" t="n">
-        <v>556.39029115456</v>
+        <v>548.3665238589938</v>
       </c>
       <c r="L35" t="n">
-        <v>639.1140081125627</v>
+        <v>767.0873365870542</v>
       </c>
       <c r="M35" t="n">
-        <v>734.9122762668362</v>
+        <v>862.8856047413278</v>
       </c>
       <c r="N35" t="n">
-        <v>734.9122762668362</v>
+        <v>862.8856047413278</v>
       </c>
       <c r="O35" t="n">
-        <v>827.8177102151304</v>
+        <v>955.7910386896222</v>
       </c>
       <c r="P35" t="n">
-        <v>1189.079654935004</v>
+        <v>1317.052983409496</v>
       </c>
       <c r="Q35" t="n">
-        <v>1262.826024269291</v>
+        <v>1390.799352743783</v>
       </c>
       <c r="R35" t="n">
         <v>1390.799352743783</v>
@@ -6965,22 +6965,22 @@
         <v>1437.745818867902</v>
       </c>
       <c r="T35" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U35" t="n">
         <v>1451.252897529258</v>
       </c>
       <c r="V35" t="n">
-        <v>1364.991781336785</v>
+        <v>1364.991781336784</v>
       </c>
       <c r="W35" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.51157880286</v>
       </c>
       <c r="X35" t="n">
-        <v>1127.494525631953</v>
+        <v>1127.494525631952</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.4921465821902</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="36">
@@ -7029,28 +7029,28 @@
         <v>29.19288442180797</v>
       </c>
       <c r="O36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P36" t="n">
-        <v>36.11675336931268</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="T36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="U36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="V36" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="W36" t="n">
         <v>29.19288442180797</v>
@@ -7069,67 +7069,67 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.33506661976811</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="C37" t="n">
-        <v>53.33506661976811</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="D37" t="n">
-        <v>53.33506661976811</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="E37" t="n">
-        <v>53.33506661976811</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="F37" t="n">
-        <v>95.14462728214261</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="G37" t="n">
-        <v>95.14462728214261</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="H37" t="n">
-        <v>95.14462728214261</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="I37" t="n">
-        <v>95.14462728214261</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="J37" t="n">
-        <v>95.14462728214261</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="K37" t="n">
-        <v>95.14462728214261</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="L37" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="M37" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="N37" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="O37" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="P37" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="R37" t="n">
-        <v>125.8253588837063</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="S37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T37" t="n">
-        <v>125.8253588837063</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U37" t="n">
-        <v>82.48530358384224</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V37" t="n">
-        <v>72.58466259902529</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W37" t="n">
         <v>29.19288442180797</v>
@@ -7138,7 +7138,7 @@
         <v>29.19288442180797</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.33506661976811</v>
+        <v>29.19288442180797</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.4904359767104</v>
+        <v>840.4904359767103</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585566</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D38" t="n">
-        <v>600.772864815498</v>
+        <v>600.7728648154978</v>
       </c>
       <c r="E38" t="n">
-        <v>459.3755726303292</v>
+        <v>459.375572630329</v>
       </c>
       <c r="F38" t="n">
-        <v>293.558252439854</v>
+        <v>293.5582524398537</v>
       </c>
       <c r="G38" t="n">
-        <v>120.5536166582396</v>
+        <v>120.5536166582395</v>
       </c>
       <c r="H38" t="n">
         <v>29.19288442180797</v>
       </c>
       <c r="I38" t="n">
-        <v>83.72603010379386</v>
+        <v>83.7260301037939</v>
       </c>
       <c r="J38" t="n">
-        <v>361.2064541202871</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K38" t="n">
-        <v>445.5655709072006</v>
+        <v>271.4636959260337</v>
       </c>
       <c r="L38" t="n">
-        <v>445.5655709072006</v>
+        <v>271.4636959260337</v>
       </c>
       <c r="M38" t="n">
-        <v>541.3638390614742</v>
+        <v>632.7256406459073</v>
       </c>
       <c r="N38" t="n">
-        <v>639.3158543545152</v>
+        <v>730.6776559389484</v>
       </c>
       <c r="O38" t="n">
-        <v>1000.577799074389</v>
+        <v>823.5830898872427</v>
       </c>
       <c r="P38" t="n">
-        <v>1256.741280836227</v>
+        <v>1038.141766452788</v>
       </c>
       <c r="Q38" t="n">
-        <v>1330.487650170514</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R38" t="n">
         <v>1390.799352743783</v>
@@ -7202,7 +7202,7 @@
         <v>1437.745818867902</v>
       </c>
       <c r="T38" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U38" t="n">
         <v>1451.252897529258</v>
@@ -7217,7 +7217,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.4921465821898</v>
+        <v>982.4921465821897</v>
       </c>
     </row>
     <row r="39">
@@ -7248,46 +7248,46 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="J39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="K39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="L39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="M39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="N39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="O39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="P39" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="R39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="S39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="T39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="U39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="V39" t="n">
-        <v>36.11675336931268</v>
+        <v>36.11675336931265</v>
       </c>
       <c r="W39" t="n">
         <v>29.19288442180797</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1363.0117466285</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="C40" t="n">
-        <v>1363.0117466285</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="D40" t="n">
-        <v>1363.0117466285</v>
+        <v>122.3807428994845</v>
       </c>
       <c r="E40" t="n">
-        <v>1363.0117466285</v>
+        <v>122.3807428994845</v>
       </c>
       <c r="F40" t="n">
-        <v>1459.017684759845</v>
+        <v>122.3807428994845</v>
       </c>
       <c r="G40" t="n">
-        <v>1459.017684759845</v>
+        <v>122.3807428994845</v>
       </c>
       <c r="H40" t="n">
-        <v>1459.017684759845</v>
+        <v>122.3807428994845</v>
       </c>
       <c r="I40" t="n">
-        <v>1459.017684759845</v>
+        <v>122.3807428994845</v>
       </c>
       <c r="J40" t="n">
-        <v>1459.017684759845</v>
+        <v>122.3807428994845</v>
       </c>
       <c r="K40" t="n">
-        <v>1459.017684759845</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="L40" t="n">
-        <v>1459.017684759845</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="M40" t="n">
-        <v>1459.017684759845</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="N40" t="n">
-        <v>1459.017684759845</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="O40" t="n">
-        <v>1459.017684759845</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="P40" t="n">
-        <v>1459.017684759845</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="Q40" t="n">
-        <v>1459.017684759845</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="R40" t="n">
-        <v>1459.017684759845</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="S40" t="n">
-        <v>1459.644221090399</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T40" t="n">
-        <v>1459.644221090399</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.304165790534</v>
+        <v>82.48530358384218</v>
       </c>
       <c r="V40" t="n">
-        <v>1406.403524805718</v>
+        <v>72.58466259902526</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.0117466285</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="X40" t="n">
-        <v>1363.0117466285</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Y40" t="n">
-        <v>1363.0117466285</v>
+        <v>29.19288442180797</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>840.4904359767104</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585566</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D41" t="n">
-        <v>600.7728648154982</v>
+        <v>600.772864815498</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303295</v>
+        <v>459.3755726303293</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398544</v>
+        <v>293.5582524398542</v>
       </c>
       <c r="G41" t="n">
         <v>120.5536166582396</v>
@@ -7406,31 +7406,31 @@
         <v>29.19288442180797</v>
       </c>
       <c r="I41" t="n">
-        <v>83.72603010379386</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J41" t="n">
-        <v>187.10457913912</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K41" t="n">
-        <v>548.3665238589937</v>
+        <v>445.5655709072007</v>
       </c>
       <c r="L41" t="n">
-        <v>631.0902408169964</v>
+        <v>528.2892878652035</v>
       </c>
       <c r="M41" t="n">
-        <v>814.556561046467</v>
+        <v>624.0875560194771</v>
       </c>
       <c r="N41" t="n">
-        <v>1175.818505766341</v>
+        <v>624.0875560194771</v>
       </c>
       <c r="O41" t="n">
-        <v>1175.818505766341</v>
+        <v>985.3495007393508</v>
       </c>
       <c r="P41" t="n">
-        <v>1256.741280836227</v>
+        <v>1066.272275809237</v>
       </c>
       <c r="Q41" t="n">
-        <v>1330.487650170514</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R41" t="n">
         <v>1390.799352743783</v>
@@ -7439,7 +7439,7 @@
         <v>1437.745818867902</v>
       </c>
       <c r="T41" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U41" t="n">
         <v>1451.252897529258</v>
@@ -7476,16 +7476,16 @@
         <v>29.19288442180797</v>
       </c>
       <c r="F42" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="G42" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="H42" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="I42" t="n">
-        <v>29.19288442180797</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="J42" t="n">
         <v>36.11675336931268</v>
@@ -7573,13 +7573,13 @@
         <v>29.19288442180797</v>
       </c>
       <c r="L43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N43" t="n">
-        <v>125.8253588837063</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O43" t="n">
         <v>125.8253588837063</v>
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.4904359767106</v>
+        <v>840.490435976711</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585569</v>
+        <v>715.3890428585571</v>
       </c>
       <c r="D44" t="n">
         <v>600.7728648154985</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303297</v>
+        <v>459.3755726303294</v>
       </c>
       <c r="F44" t="n">
-        <v>293.5582524398544</v>
+        <v>293.5582524398542</v>
       </c>
       <c r="G44" t="n">
-        <v>120.5536166582395</v>
+        <v>120.5536166582396</v>
       </c>
       <c r="H44" t="n">
         <v>29.19288442180797</v>
       </c>
       <c r="I44" t="n">
-        <v>83.72603010379389</v>
+        <v>83.72603010379387</v>
       </c>
       <c r="J44" t="n">
-        <v>187.1045791391201</v>
+        <v>361.2064541202872</v>
       </c>
       <c r="K44" t="n">
-        <v>187.1045791391201</v>
+        <v>445.5655709072007</v>
       </c>
       <c r="L44" t="n">
-        <v>269.8282960971228</v>
+        <v>528.2892878652035</v>
       </c>
       <c r="M44" t="n">
-        <v>453.2946163265931</v>
+        <v>624.0875560194771</v>
       </c>
       <c r="N44" t="n">
-        <v>814.5565610464668</v>
+        <v>722.0395713125182</v>
       </c>
       <c r="O44" t="n">
-        <v>1175.81850576634</v>
+        <v>1083.301516032392</v>
       </c>
       <c r="P44" t="n">
-        <v>1256.741280836227</v>
+        <v>1254.844871708586</v>
       </c>
       <c r="Q44" t="n">
-        <v>1330.487650170514</v>
+        <v>1328.591241042873</v>
       </c>
       <c r="R44" t="n">
         <v>1390.799352743783</v>
@@ -7676,22 +7676,22 @@
         <v>1437.745818867902</v>
       </c>
       <c r="T44" t="n">
-        <v>1459.644221090399</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="U44" t="n">
         <v>1451.252897529258</v>
       </c>
       <c r="V44" t="n">
-        <v>1364.991781336784</v>
+        <v>1364.991781336785</v>
       </c>
       <c r="W44" t="n">
-        <v>1256.511578802861</v>
+        <v>1256.511578802862</v>
       </c>
       <c r="X44" t="n">
         <v>1127.494525631953</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821901</v>
+        <v>982.4921465821905</v>
       </c>
     </row>
     <row r="45">
@@ -7731,37 +7731,37 @@
         <v>29.19288442180797</v>
       </c>
       <c r="L45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="M45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="N45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="R45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="S45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="T45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="U45" t="n">
-        <v>36.11675336931265</v>
+        <v>29.19288442180797</v>
       </c>
       <c r="V45" t="n">
-        <v>36.11675336931265</v>
+        <v>36.11675336931268</v>
       </c>
       <c r="W45" t="n">
         <v>29.19288442180797</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="C46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="D46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="E46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="F46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="G46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="H46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="I46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="J46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="K46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="L46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="M46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="N46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="O46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="P46" t="n">
-        <v>29.19288442180797</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="R46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="S46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="T46" t="n">
-        <v>125.8253588837062</v>
+        <v>125.8253588837063</v>
       </c>
       <c r="U46" t="n">
-        <v>82.48530358384218</v>
+        <v>82.48530358384224</v>
       </c>
       <c r="V46" t="n">
-        <v>72.58466259902526</v>
+        <v>72.58466259902529</v>
       </c>
       <c r="W46" t="n">
         <v>29.19288442180797</v>
       </c>
       <c r="X46" t="n">
-        <v>29.19288442180797</v>
+        <v>39.26266193447247</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.19288442180797</v>
+        <v>63.40484413243261</v>
       </c>
     </row>
   </sheetData>
@@ -8690,19 +8690,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>157.92348741428</v>
+        <v>37.76453156157824</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>152.660366363857</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>81.30719271909602</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>146.3687890634112</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.924101060849218</v>
+        <v>139.9591514645406</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9088,13 +9088,13 @@
         <v>102.5727324697714</v>
       </c>
       <c r="L16" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9875,19 +9875,19 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L26" t="n">
-        <v>371.8683694066226</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>358.661752036652</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>121.4543601069205</v>
       </c>
       <c r="O26" t="n">
-        <v>294.1451884930682</v>
+        <v>57.86973069392172</v>
       </c>
       <c r="P26" t="n">
         <v>334.6706564983419</v>
@@ -9896,7 +9896,7 @@
         <v>220.8075902863009</v>
       </c>
       <c r="R26" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725116</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,22 +10030,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P28" t="n">
         <v>110.1177504068044</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>81.89971881463359</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
-        <v>142.562139707509</v>
+        <v>371.8683694066226</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N29" t="n">
-        <v>356.4862498762809</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>361.5838067901666</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>153.096644970766</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10197,10 +10197,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175255</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955191</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10270,25 +10270,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>111.0135169984386</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M31" t="n">
-        <v>185.6500473458235</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P31" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>142.6240858431615</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>85.02187691263683</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>358.6617520366521</v>
+        <v>358.661752036652</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>356.4862498762809</v>
       </c>
       <c r="O32" t="n">
-        <v>361.5838067901666</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P32" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.8075902863009</v>
+        <v>113.1920216725185</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,19 +10431,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>66.06942948955185</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.32375190725112</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.11220969290979</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10507,16 +10507,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L34" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N34" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8.104815450067036</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>279.6998261949092</v>
+        <v>279.6998261949091</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>137.370803808139</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2.178676715694024</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,19 +10665,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175255</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>82.32375190725112</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,13 +10744,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>132.7957414316982</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10759,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>12.18953544787865</v>
+        <v>153.9152860732847</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>268.1451278440403</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>271.067182597555</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>177.0108148403554</v>
+        <v>134.9857590865246</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10981,16 +10981,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>101.8051034503207</v>
       </c>
       <c r="M40" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>279.6998261949092</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>88.55358795474451</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>410.3837660866333</v>
+        <v>106.6214274947129</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>271.0671825975548</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>192.3929343706963</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11230,13 +11230,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>88.55358795474415</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>265.9696256836694</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>359.7480127012256</v>
+        <v>271.0671825975548</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.915564775394529</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>66.06942948955185</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>43.26082786675404</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11458,19 +11458,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>104.1302923698531</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165.2663860313838</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C11" t="n">
-        <v>148.5350717189314</v>
+        <v>80.13804573086153</v>
       </c>
       <c r="D11" t="n">
         <v>138.1547087945872</v>
       </c>
       <c r="E11" t="n">
-        <v>96.27098580720644</v>
+        <v>164.6680117952763</v>
       </c>
       <c r="F11" t="n">
-        <v>128.5997390302378</v>
+        <v>188.8438395205297</v>
       </c>
       <c r="G11" t="n">
-        <v>195.9592819557576</v>
+        <v>195.9592819557577</v>
       </c>
       <c r="H11" t="n">
-        <v>46.73479145795665</v>
+        <v>46.73479145795656</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417413</v>
+        <v>2.565094327417468</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748825</v>
+        <v>32.9921028574883</v>
       </c>
       <c r="V11" t="n">
-        <v>110.0831975625081</v>
+        <v>49.83909707221624</v>
       </c>
       <c r="W11" t="n">
-        <v>132.0800930405434</v>
+        <v>63.68306705247352</v>
       </c>
       <c r="X11" t="n">
         <v>152.4115751711582</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.8400218031548</v>
+        <v>168.2370477912247</v>
       </c>
     </row>
     <row r="12">
@@ -23495,10 +23495,10 @@
         <v>165.2663860313839</v>
       </c>
       <c r="C14" t="n">
-        <v>80.13804573086146</v>
+        <v>88.29097122863953</v>
       </c>
       <c r="D14" t="n">
-        <v>69.75768280651722</v>
+        <v>138.1547087945872</v>
       </c>
       <c r="E14" t="n">
         <v>164.6680117952763</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417442</v>
+        <v>2.565094327417468</v>
       </c>
       <c r="U14" t="n">
-        <v>32.99210285748827</v>
+        <v>32.99210285748831</v>
       </c>
       <c r="V14" t="n">
-        <v>41.68617157443819</v>
+        <v>110.0831975625082</v>
       </c>
       <c r="W14" t="n">
-        <v>132.0800930405434</v>
+        <v>63.68306705247352</v>
       </c>
       <c r="X14" t="n">
-        <v>152.4115751711582</v>
+        <v>84.01454918308832</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.9929473009326</v>
+        <v>99.84002180315474</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223343.0038828287</v>
+        <v>223343.0038828285</v>
       </c>
       <c r="C2" t="n">
         <v>223343.0038828286</v>
@@ -26323,22 +26323,22 @@
         <v>192098.4345142756</v>
       </c>
       <c r="F2" t="n">
-        <v>192098.4345142757</v>
+        <v>192098.4345142755</v>
       </c>
       <c r="G2" t="n">
+        <v>223827.8373691076</v>
+      </c>
+      <c r="H2" t="n">
         <v>223827.8373691077</v>
-      </c>
-      <c r="H2" t="n">
-        <v>223827.8373691076</v>
       </c>
       <c r="I2" t="n">
         <v>223827.8373691077</v>
       </c>
       <c r="J2" t="n">
+        <v>223827.8373691076</v>
+      </c>
+      <c r="K2" t="n">
         <v>223827.8373691075</v>
-      </c>
-      <c r="K2" t="n">
-        <v>223827.8373691076</v>
       </c>
       <c r="L2" t="n">
         <v>223827.8373691076</v>
@@ -26347,13 +26347,13 @@
         <v>223827.8373691075</v>
       </c>
       <c r="N2" t="n">
-        <v>223827.8373691074</v>
+        <v>223827.8373691076</v>
       </c>
       <c r="O2" t="n">
-        <v>223827.8373691076</v>
+        <v>223827.8373691075</v>
       </c>
       <c r="P2" t="n">
-        <v>223827.8373691076</v>
+        <v>223827.8373691075</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284205.3843039991</v>
+        <v>284205.3843039992</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>105664.0744324347</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363342</v>
+        <v>17695.67856363346</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750819</v>
+        <v>71148.02019750811</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
+        <v>361458.6760153741</v>
+      </c>
+      <c r="F4" t="n">
         <v>361458.676015374</v>
       </c>
-      <c r="F4" t="n">
-        <v>361458.6760153741</v>
-      </c>
       <c r="G4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983837</v>
       </c>
       <c r="H4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983837</v>
       </c>
       <c r="I4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983837</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="K4" t="n">
         <v>434774.7393444278</v>
@@ -26448,16 +26448,16 @@
         <v>434774.7393444277</v>
       </c>
       <c r="M4" t="n">
+        <v>431062.8369613773</v>
+      </c>
+      <c r="N4" t="n">
         <v>431062.8369613772</v>
       </c>
-      <c r="N4" t="n">
-        <v>431062.8369613773</v>
-      </c>
       <c r="O4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="P4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24939.02968325744</v>
+        <v>24939.02968325745</v>
       </c>
       <c r="F5" t="n">
         <v>24939.02968325745</v>
@@ -26488,7 +26488,7 @@
         <v>36042.87102508289</v>
       </c>
       <c r="I5" t="n">
-        <v>36042.8710250829</v>
+        <v>36042.87102508289</v>
       </c>
       <c r="J5" t="n">
         <v>47341.26675884315</v>
@@ -26500,16 +26500,16 @@
         <v>47341.26675884315</v>
       </c>
       <c r="M5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022614</v>
       </c>
       <c r="N5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022614</v>
       </c>
       <c r="O5" t="n">
-        <v>45042.30008022613</v>
+        <v>45042.30008022612</v>
       </c>
       <c r="P5" t="n">
-        <v>45042.30008022614</v>
+        <v>45042.30008022612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-273836.7167528629</v>
+        <v>-273841.1243300111</v>
       </c>
       <c r="C6" t="n">
-        <v>-273836.716752863</v>
+        <v>-273841.124330011</v>
       </c>
       <c r="D6" t="n">
-        <v>-273836.716752863</v>
+        <v>-273841.124330011</v>
       </c>
       <c r="E6" t="n">
-        <v>-478504.655488355</v>
+        <v>-478793.1046052172</v>
       </c>
       <c r="F6" t="n">
-        <v>-194299.2711843559</v>
+        <v>-194587.720301218</v>
       </c>
       <c r="G6" t="n">
-        <v>-344072.5373867936</v>
+        <v>-344072.5373867937</v>
       </c>
       <c r="H6" t="n">
-        <v>-238408.462954359</v>
+        <v>-238408.4629543589</v>
       </c>
       <c r="I6" t="n">
-        <v>-238408.462954359</v>
+        <v>-238408.4629543589</v>
       </c>
       <c r="J6" t="n">
-        <v>-424912.9770774156</v>
+        <v>-424912.9770774155</v>
       </c>
       <c r="K6" t="n">
-        <v>-258288.1687341633</v>
+        <v>-258288.1687341634</v>
       </c>
       <c r="L6" t="n">
         <v>-363952.243166598</v>
       </c>
       <c r="M6" t="n">
-        <v>-269972.9782361293</v>
+        <v>-269972.9782361294</v>
       </c>
       <c r="N6" t="n">
-        <v>-252277.299672496</v>
+        <v>-252277.2996724958</v>
       </c>
       <c r="O6" t="n">
-        <v>-323425.3198700041</v>
+        <v>-323425.319870004</v>
       </c>
       <c r="P6" t="n">
         <v>-252277.2996724959</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="F3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="G3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="H3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="I3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="J3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="K3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="L3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="M3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="N3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="O3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="P3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
     </row>
     <row r="4">
@@ -26796,25 +26796,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.3970259880698</v>
+        <v>68.39702598806994</v>
       </c>
       <c r="F4" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="G4" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="H4" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="I4" t="n">
-        <v>68.39702598807</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="J4" t="n">
-        <v>433.3080812606694</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="K4" t="n">
-        <v>433.3080812606694</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="L4" t="n">
         <v>433.3080812606695</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.93502524688523</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>132.0800930405434</v>
       </c>
       <c r="M2" t="n">
-        <v>22.11959820454177</v>
+        <v>22.11959820454183</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688523</v>
+        <v>88.93502524688515</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.808047655441</v>
+        <v>110.8080476554411</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>68.3970259880698</v>
+        <v>68.39702598806994</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>364.9110552725995</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.93502524688523</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>68.3970259880698</v>
+        <v>68.39702598806994</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,34 +28111,34 @@
         <v>218.4500239600112</v>
       </c>
       <c r="J11" t="n">
-        <v>207.1089656766804</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>188.5559818407716</v>
       </c>
       <c r="L11" t="n">
-        <v>159.5754064333818</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="M11" t="n">
-        <v>202.3693740354742</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>144.1932869030401</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O11" t="n">
-        <v>67.98365109782974</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P11" t="n">
         <v>218.4500239600112</v>
       </c>
       <c r="Q11" t="n">
-        <v>168.6434343361249</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="R11" t="n">
-        <v>218.4500239600112</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S11" t="n">
-        <v>218.4500239600112</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T11" t="n">
         <v>218.4500239600112</v>
@@ -28187,28 +28187,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I12" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L12" t="n">
-        <v>83.34002595346598</v>
+        <v>135.5688827973806</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N12" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955185</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725112</v>
       </c>
       <c r="P12" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290979</v>
       </c>
       <c r="Q12" t="n">
         <v>106.0581031398714</v>
@@ -28217,7 +28217,7 @@
         <v>127.2394152081628</v>
       </c>
       <c r="S12" t="n">
-        <v>216.763375638042</v>
+        <v>164.5345187941275</v>
       </c>
       <c r="T12" t="n">
         <v>197.4218470422748</v>
@@ -28269,28 +28269,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J13" t="n">
-        <v>109.6934180900282</v>
+        <v>178.0904440780981</v>
       </c>
       <c r="K13" t="n">
-        <v>102.5727324697714</v>
+        <v>170.9697584578413</v>
       </c>
       <c r="L13" t="n">
-        <v>170.2021294383905</v>
+        <v>155.97421050345</v>
       </c>
       <c r="M13" t="n">
-        <v>172.5273183579229</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N13" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P13" t="n">
         <v>110.1177504068044</v>
       </c>
       <c r="Q13" t="n">
-        <v>185.1544684458673</v>
+        <v>63.02868467987658</v>
       </c>
       <c r="R13" t="n">
         <v>164.4066131828346</v>
@@ -28345,37 +28345,37 @@
         <v>218.4500239600112</v>
       </c>
       <c r="I14" t="n">
-        <v>188.0507309546109</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="J14" t="n">
         <v>138.7119396886106</v>
       </c>
       <c r="K14" t="n">
-        <v>185.4487478651145</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="L14" t="n">
         <v>218.4500239600112</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N14" t="n">
-        <v>144.1932869030401</v>
+        <v>196.8204015879506</v>
       </c>
       <c r="O14" t="n">
-        <v>217.6878698049957</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P14" t="n">
-        <v>218.4500239600112</v>
+        <v>161.3945396537014</v>
       </c>
       <c r="Q14" t="n">
-        <v>165.7193332752757</v>
+        <v>28.68428287158432</v>
       </c>
       <c r="R14" t="n">
-        <v>218.4500239600112</v>
+        <v>113.8687281338978</v>
       </c>
       <c r="S14" t="n">
-        <v>218.4500239600112</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T14" t="n">
         <v>218.4500239600112</v>
@@ -28412,7 +28412,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>194.2738961995556</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -28424,28 +28424,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I15" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L15" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955185</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725112</v>
       </c>
       <c r="P15" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290979</v>
       </c>
       <c r="Q15" t="n">
         <v>106.0581031398714</v>
@@ -28454,7 +28454,7 @@
         <v>127.2394152081628</v>
       </c>
       <c r="S15" t="n">
-        <v>216.763375638042</v>
+        <v>164.5345187941275</v>
       </c>
       <c r="T15" t="n">
         <v>197.4218470422748</v>
@@ -28469,7 +28469,7 @@
         <v>218.4500239600112</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -28488,22 +28488,22 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>217.4025925025894</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>200.3281284629334</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.689771139254</v>
+        <v>177.6199796389525</v>
       </c>
       <c r="H16" t="n">
-        <v>159.857510195687</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="I16" t="n">
-        <v>216.1465068568802</v>
+        <v>216.1465068568801</v>
       </c>
       <c r="J16" t="n">
         <v>109.6934180900282</v>
@@ -28512,16 +28512,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M16" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O16" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P16" t="n">
         <v>110.1177504068044</v>
@@ -28530,7 +28530,7 @@
         <v>130.9853613927381</v>
       </c>
       <c r="R16" t="n">
-        <v>164.4066131828346</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S16" t="n">
         <v>218.4500239600112</v>
@@ -28579,49 +28579,49 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H17" t="n">
-        <v>333.5818414060377</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="I17" t="n">
-        <v>188.0507309546109</v>
+        <v>214.7390696685904</v>
       </c>
       <c r="J17" t="n">
         <v>138.7119396886106</v>
       </c>
       <c r="K17" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L17" t="n">
-        <v>159.5754064333818</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M17" t="n">
         <v>146.3687890634112</v>
       </c>
       <c r="N17" t="n">
-        <v>212.59031289111</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O17" t="n">
-        <v>149.2908438169258</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P17" t="n">
         <v>161.3945396537014</v>
       </c>
       <c r="Q17" t="n">
-        <v>234.2769441226567</v>
+        <v>237.0404603241948</v>
       </c>
       <c r="R17" t="n">
-        <v>250.6108307898695</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S17" t="n">
-        <v>264.1110696273947</v>
+        <v>264.1110696273946</v>
       </c>
       <c r="T17" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4421268174995</v>
+        <v>319.8391528055694</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
@@ -28661,28 +28661,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I18" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L18" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955185</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725112</v>
       </c>
       <c r="P18" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290979</v>
       </c>
       <c r="Q18" t="n">
         <v>106.0581031398714</v>
@@ -28755,10 +28755,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O19" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P19" t="n">
         <v>110.1177504068044</v>
@@ -28816,7 +28816,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H20" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I20" t="n">
         <v>188.0507309546109</v>
@@ -28825,22 +28825,22 @@
         <v>138.7119396886106</v>
       </c>
       <c r="K20" t="n">
-        <v>184.6118261282596</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L20" t="n">
-        <v>159.5754064333818</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M20" t="n">
-        <v>214.7658150514812</v>
+        <v>146.3687890634112</v>
       </c>
       <c r="N20" t="n">
-        <v>144.1932869030401</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O20" t="n">
-        <v>149.2908438169258</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P20" t="n">
-        <v>161.3945396537014</v>
+        <v>227.0280494402331</v>
       </c>
       <c r="Q20" t="n">
         <v>168.6434343361249</v>
@@ -28849,16 +28849,16 @@
         <v>250.6108307898695</v>
       </c>
       <c r="S20" t="n">
-        <v>195.7140436393247</v>
+        <v>264.1110696273947</v>
       </c>
       <c r="T20" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="U20" t="n">
-        <v>319.8391528055694</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V20" t="n">
-        <v>350.5301170005546</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -28898,28 +28898,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I21" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L21" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955185</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725112</v>
       </c>
       <c r="P21" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290979</v>
       </c>
       <c r="Q21" t="n">
         <v>106.0581031398714</v>
@@ -28992,10 +28992,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O22" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P22" t="n">
         <v>110.1177504068044</v>
@@ -29062,34 +29062,34 @@
         <v>138.7119396886106</v>
       </c>
       <c r="K23" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L23" t="n">
-        <v>159.5754064333818</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M23" t="n">
         <v>146.3687890634112</v>
       </c>
       <c r="N23" t="n">
-        <v>212.5903128911101</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O23" t="n">
-        <v>214.9243536034575</v>
+        <v>149.2908438169257</v>
       </c>
       <c r="P23" t="n">
-        <v>161.3945396537014</v>
+        <v>229.7915656417713</v>
       </c>
       <c r="Q23" t="n">
         <v>168.6434343361249</v>
       </c>
       <c r="R23" t="n">
-        <v>182.2138048017995</v>
+        <v>247.8473145883312</v>
       </c>
       <c r="S23" t="n">
         <v>195.7140436393247</v>
       </c>
       <c r="T23" t="n">
-        <v>289.4121442754986</v>
+        <v>289.4121442754985</v>
       </c>
       <c r="U23" t="n">
         <v>319.8391528055694</v>
@@ -29135,28 +29135,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I24" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J24" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L24" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955185</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725112</v>
       </c>
       <c r="P24" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290979</v>
       </c>
       <c r="Q24" t="n">
         <v>106.0581031398714</v>
@@ -29229,10 +29229,10 @@
         <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O25" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P25" t="n">
         <v>110.1177504068044</v>
@@ -29299,7 +29299,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="K26" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>221.0151182874286</v>
@@ -29311,13 +29311,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="O26" t="n">
-        <v>52.97180880718579</v>
+        <v>91.42111312300396</v>
       </c>
       <c r="P26" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R26" t="n">
         <v>221.0151182874286</v>
@@ -29360,7 +29360,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>200.4107621537287</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
@@ -29372,34 +29372,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I27" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>83.34002595346598</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955185</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>82.32375190725112</v>
       </c>
       <c r="P27" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290979</v>
       </c>
       <c r="Q27" t="n">
-        <v>150.4354315864262</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R27" t="n">
-        <v>79.89687860438912</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S27" t="n">
         <v>164.5345187941275</v>
@@ -29430,13 +29430,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>221.0151182874286</v>
+        <v>168.5900234764689</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
@@ -29445,22 +29445,22 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.689771139254</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="H28" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="I28" t="n">
-        <v>191.7211504657511</v>
+        <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
-        <v>109.6934180900282</v>
+        <v>74.7117271143959</v>
       </c>
       <c r="K28" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M28" t="n">
         <v>104.1302923698531</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S28" t="n">
-        <v>218.8751278244474</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T28" t="n">
         <v>221.0151182874286</v>
@@ -29533,7 +29533,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="J29" t="n">
-        <v>56.81222087397707</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="K29" t="n">
         <v>221.0151182874286</v>
@@ -29542,22 +29542,22 @@
         <v>221.0151182874286</v>
       </c>
       <c r="M29" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>221.0151182874286</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="P29" t="n">
-        <v>221.0151182874286</v>
+        <v>122.0328220747963</v>
       </c>
       <c r="Q29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="R29" t="n">
-        <v>113.8687281338978</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
         <v>221.0151182874286</v>
@@ -29594,7 +29594,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>190.4897520212004</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
@@ -29609,31 +29609,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L30" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>66.06942948955185</v>
       </c>
       <c r="O30" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725112</v>
       </c>
       <c r="P30" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290979</v>
       </c>
       <c r="Q30" t="n">
-        <v>150.4354315864262</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R30" t="n">
         <v>127.2394152081628</v>
@@ -29676,16 +29676,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="F31" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.689771139254</v>
+        <v>209.7731664993807</v>
       </c>
       <c r="H31" t="n">
-        <v>221.0151182874286</v>
+        <v>159.857510195687</v>
       </c>
       <c r="I31" t="n">
         <v>147.7494808688102</v>
@@ -29706,16 +29706,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.64293166244758</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R31" t="n">
-        <v>164.4066131828346</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S31" t="n">
         <v>221.0151182874286</v>
@@ -29770,10 +29770,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="J32" t="n">
+        <v>138.7119396886106</v>
+      </c>
+      <c r="K32" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="K32" t="n">
-        <v>15.29940157111841</v>
       </c>
       <c r="L32" t="n">
         <v>221.0151182874286</v>
@@ -29785,10 +29785,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="O32" t="n">
+        <v>87.23994148315872</v>
+      </c>
+      <c r="P32" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>221.0151182874286</v>
@@ -29846,37 +29846,37 @@
         <v>108.160635135932</v>
       </c>
       <c r="I33" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L33" t="n">
-        <v>83.34002595346598</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175255</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955191</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725116</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>85.11220969290983</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.0581031398714</v>
+        <v>150.4354315864263</v>
       </c>
       <c r="R33" t="n">
         <v>127.2394152081628</v>
       </c>
       <c r="S33" t="n">
-        <v>208.9118472406823</v>
+        <v>164.5345187941275</v>
       </c>
       <c r="T33" t="n">
         <v>197.4218470422748</v>
@@ -29910,7 +29910,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
@@ -29919,7 +29919,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.689771139254</v>
+        <v>182.7892919332462</v>
       </c>
       <c r="H34" t="n">
         <v>159.857510195687</v>
@@ -29928,13 +29928,13 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J34" t="n">
-        <v>196.8024906569294</v>
+        <v>109.6934180900282</v>
       </c>
       <c r="K34" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30019,7 +30019,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N35" t="n">
-        <v>144.1932869030401</v>
+        <v>142.014610187346</v>
       </c>
       <c r="O35" t="n">
         <v>243.1347164919704</v>
@@ -30031,7 +30031,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="R35" t="n">
-        <v>243.1347164919704</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S35" t="n">
         <v>243.1347164919704</v>
@@ -30083,34 +30083,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I36" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065689</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>83.34002595346598</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955185</v>
       </c>
       <c r="O36" t="n">
-        <v>89.31755892493268</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290979</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.0581031398714</v>
+        <v>113.0519101575529</v>
       </c>
       <c r="R36" t="n">
-        <v>79.89687860438912</v>
+        <v>127.2394152081628</v>
       </c>
       <c r="S36" t="n">
         <v>164.5345187941275</v>
@@ -30153,7 +30153,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>188.3909008667484</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>167.689771139254</v>
@@ -30168,22 +30168,22 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>175.1540748453212</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O37" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q37" t="n">
         <v>130.9853613927381</v>
@@ -30192,7 +30192,7 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S37" t="n">
-        <v>218.8751278244474</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T37" t="n">
         <v>227.4786990669493</v>
@@ -30210,7 +30210,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>243.1347164919704</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -30250,7 +30250,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="L38" t="n">
-        <v>147.3858709855031</v>
+        <v>5.660120360097027</v>
       </c>
       <c r="M38" t="n">
         <v>243.1347164919704</v>
@@ -30320,31 +30320,31 @@
         <v>108.160635135932</v>
       </c>
       <c r="I39" t="n">
-        <v>88.82825281985649</v>
+        <v>95.82205983753796</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L39" t="n">
-        <v>83.34002595346598</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N39" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955185</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725112</v>
       </c>
       <c r="P39" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290979</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.0519101575529</v>
+        <v>106.0581031398714</v>
       </c>
       <c r="R39" t="n">
         <v>127.2394152081628</v>
@@ -30384,13 +30384,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>243.1347164919704</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
         <v>167.689771139254</v>
@@ -30405,19 +30405,19 @@
         <v>109.6934180900282</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.0521425548438</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O40" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S40" t="n">
-        <v>219.507992804805</v>
+        <v>218.8751278244474</v>
       </c>
       <c r="T40" t="n">
         <v>227.4786990669493</v>
@@ -30493,10 +30493,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N41" t="n">
-        <v>98.72057608900646</v>
+        <v>37.57185940832716</v>
       </c>
       <c r="O41" t="n">
-        <v>149.2908438169258</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="P41" t="n">
         <v>243.1347164919704</v>
@@ -30548,7 +30548,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>150.5000391012308</v>
       </c>
       <c r="G42" t="n">
         <v>135.7848683666891</v>
@@ -30557,28 +30557,28 @@
         <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J42" t="n">
-        <v>108.1424160880037</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L42" t="n">
-        <v>83.34002595346598</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N42" t="n">
-        <v>66.06942948955191</v>
+        <v>66.06942948955185</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725112</v>
       </c>
       <c r="P42" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290979</v>
       </c>
       <c r="Q42" t="n">
         <v>106.0581031398714</v>
@@ -30645,22 +30645,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>199.4136635128443</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
         <v>104.1302923698531</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>204.3603485785326</v>
       </c>
       <c r="P43" t="n">
         <v>110.1177504068044</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987658</v>
       </c>
       <c r="R43" t="n">
         <v>164.4066131828346</v>
@@ -30721,7 +30721,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="K44" t="n">
-        <v>157.92348741428</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="L44" t="n">
         <v>243.1347164919704</v>
@@ -30733,10 +30733,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="O44" t="n">
-        <v>154.4538863882997</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="P44" t="n">
-        <v>243.1347164919704</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>243.1347164919704</v>
@@ -30794,34 +30794,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065689</v>
+        <v>95.90842290065686</v>
       </c>
       <c r="L45" t="n">
-        <v>90.33383297114747</v>
+        <v>83.34002595346593</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175255</v>
+        <v>78.19029710175249</v>
       </c>
       <c r="N45" t="n">
-        <v>66.06942948955191</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725116</v>
+        <v>82.32375190725112</v>
       </c>
       <c r="P45" t="n">
-        <v>85.11220969290983</v>
+        <v>85.11220969290979</v>
       </c>
       <c r="Q45" t="n">
         <v>106.0581031398714</v>
       </c>
       <c r="R45" t="n">
-        <v>127.2394152081628</v>
+        <v>83.97858734140871</v>
       </c>
       <c r="S45" t="n">
         <v>164.5345187941275</v>
@@ -30833,7 +30833,7 @@
         <v>224.641496683099</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>238.9025380573366</v>
       </c>
       <c r="W45" t="n">
         <v>243.1347164919704</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30882,22 +30882,22 @@
         <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681482</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>110.1177504068044</v>
       </c>
       <c r="Q46" t="n">
-        <v>228.5939214552616</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R46" t="n">
         <v>164.4066131828346</v>
@@ -30918,10 +30918,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>236.3118523693441</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.7486738677682</v>
+        <v>243.1347164919704</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620743</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115716</v>
+        <v>4.56206198211572</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J11" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490852</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235586</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921889</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S11" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532129</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J12" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934316</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191143</v>
       </c>
       <c r="M12" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221538</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169812</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608219</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606221</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399957</v>
+        <v>30.4241265939996</v>
       </c>
       <c r="R12" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516912</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938708</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H13" t="n">
-        <v>1.776561813229858</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I13" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J13" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650058</v>
+        <v>23.2151942465006</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906177</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453768</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R13" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583162</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620743</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115716</v>
+        <v>4.56206198211572</v>
       </c>
       <c r="I14" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J14" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490852</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235586</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921889</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S14" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532129</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J15" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934316</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191143</v>
       </c>
       <c r="M15" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221538</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169812</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608219</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606221</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399957</v>
+        <v>30.4241265939996</v>
       </c>
       <c r="R15" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516912</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938708</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H16" t="n">
-        <v>1.776561813229858</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I16" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J16" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650058</v>
+        <v>23.2151942465006</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906177</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453768</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R16" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583162</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620743</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115716</v>
+        <v>4.56206198211572</v>
       </c>
       <c r="I17" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J17" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490852</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235586</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921889</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S17" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532129</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J18" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934316</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191143</v>
       </c>
       <c r="M18" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221538</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169812</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608219</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606221</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399957</v>
+        <v>30.4241265939996</v>
       </c>
       <c r="R18" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516912</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938708</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776561813229858</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I19" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J19" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650058</v>
+        <v>23.2151942465006</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906177</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453768</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R19" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583162</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620743</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115716</v>
+        <v>4.56206198211572</v>
       </c>
       <c r="I20" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J20" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490852</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235586</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921889</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S20" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T20" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532129</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J21" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934316</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191143</v>
       </c>
       <c r="M21" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221538</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169812</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608219</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606221</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399957</v>
+        <v>30.4241265939996</v>
       </c>
       <c r="R21" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516912</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938708</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776561813229858</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I22" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J22" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650058</v>
+        <v>23.2151942465006</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906177</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453768</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R22" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583162</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620743</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115716</v>
+        <v>4.56206198211572</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J23" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490852</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235586</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921889</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S23" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532129</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J24" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934316</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191143</v>
       </c>
       <c r="M24" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221538</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169812</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608219</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606221</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399957</v>
+        <v>30.4241265939996</v>
       </c>
       <c r="R24" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516912</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938708</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776561813229858</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I25" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J25" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650058</v>
+        <v>23.2151942465006</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906177</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453768</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R25" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583162</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620743</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115716</v>
+        <v>4.56206198211572</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J26" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490852</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235586</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921889</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S26" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T26" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532129</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J27" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934316</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191143</v>
       </c>
       <c r="M27" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221538</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169812</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608219</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606221</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399957</v>
+        <v>30.4241265939996</v>
       </c>
       <c r="R27" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516912</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938708</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776561813229858</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I28" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J28" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650058</v>
+        <v>23.2151942465006</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906177</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453768</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R28" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583162</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620743</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115716</v>
+        <v>4.56206198211572</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J29" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490852</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235586</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921889</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S29" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T29" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532129</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J30" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934316</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191143</v>
       </c>
       <c r="M30" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221538</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169812</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608219</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606221</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399957</v>
+        <v>30.4241265939996</v>
       </c>
       <c r="R30" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516912</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938708</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H31" t="n">
-        <v>1.776561813229858</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I31" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J31" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650058</v>
+        <v>23.2151942465006</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906177</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453768</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R31" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583162</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620743</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115716</v>
+        <v>4.56206198211572</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J32" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490852</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235586</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921889</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S32" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T32" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532129</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J33" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934316</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191143</v>
       </c>
       <c r="M33" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221538</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169812</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608219</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606221</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399957</v>
+        <v>30.4241265939996</v>
       </c>
       <c r="R33" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516912</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938708</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H34" t="n">
-        <v>1.776561813229858</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I34" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J34" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650058</v>
+        <v>23.2151942465006</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906177</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453768</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R34" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583162</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620743</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115716</v>
+        <v>4.56206198211572</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J35" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490852</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235586</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921889</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S35" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T35" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532129</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J36" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934316</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191143</v>
       </c>
       <c r="M36" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221538</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169812</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608219</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606221</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399957</v>
+        <v>30.4241265939996</v>
       </c>
       <c r="R36" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516912</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938708</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H37" t="n">
-        <v>1.776561813229858</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I37" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J37" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650058</v>
+        <v>23.2151942465006</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906177</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453768</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R37" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583162</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620743</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115716</v>
+        <v>4.56206198211572</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J38" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490852</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235586</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921889</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S38" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T38" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532129</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J39" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934316</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191143</v>
       </c>
       <c r="M39" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221538</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169812</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608219</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606221</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399957</v>
+        <v>30.4241265939996</v>
       </c>
       <c r="R39" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516912</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938708</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H40" t="n">
-        <v>1.776561813229858</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I40" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J40" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650058</v>
+        <v>23.2151942465006</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906177</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453768</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R40" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583162</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620743</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115716</v>
+        <v>4.56206198211572</v>
       </c>
       <c r="I41" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J41" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490852</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235586</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921889</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S41" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T41" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532129</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J42" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934316</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191143</v>
       </c>
       <c r="M42" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221538</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169812</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608219</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606221</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399957</v>
+        <v>30.4241265939996</v>
       </c>
       <c r="R42" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516912</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938708</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H43" t="n">
-        <v>1.776561813229858</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I43" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J43" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650058</v>
+        <v>23.2151942465006</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906177</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453768</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R43" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583162</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620739</v>
+        <v>0.4454594880620743</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115716</v>
+        <v>4.56206198211572</v>
       </c>
       <c r="I44" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351314</v>
       </c>
       <c r="J44" t="n">
-        <v>37.80781722490848</v>
+        <v>37.80781722490852</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457608</v>
+        <v>56.66411735457613</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235579</v>
+        <v>70.29684816235586</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317969</v>
+        <v>78.21878833317976</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363606</v>
+        <v>79.48445010363614</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921881</v>
+        <v>75.05491231921889</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768636</v>
+        <v>64.05763120768641</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.10461329146332</v>
+        <v>48.10461329146336</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697927</v>
+        <v>27.9820945669793</v>
       </c>
       <c r="S44" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421453</v>
       </c>
       <c r="T44" t="n">
-        <v>1.94999890899173</v>
+        <v>1.949998908991731</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03563675904496591</v>
+        <v>0.03563675904496594</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2383418383532127</v>
+        <v>0.2383418383532129</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200765</v>
+        <v>2.301880386200767</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143507</v>
+        <v>8.206067680143514</v>
       </c>
       <c r="J45" t="n">
-        <v>22.51807692967787</v>
+        <v>22.51807692967789</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934312</v>
+        <v>38.48698009934316</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191138</v>
+        <v>51.75049433191143</v>
       </c>
       <c r="M45" t="n">
-        <v>60.39038597221532</v>
+        <v>60.39038597221538</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169807</v>
+        <v>61.98873979169812</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608214</v>
+        <v>56.70758642608219</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606216</v>
+        <v>45.51283753606221</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399957</v>
+        <v>30.4241265939996</v>
       </c>
       <c r="R45" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670212</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516908</v>
+        <v>4.427095111516912</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938699</v>
+        <v>0.9606848659938708</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218505</v>
+        <v>0.01568038410218506</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540739</v>
+        <v>0.199817790854074</v>
       </c>
       <c r="H46" t="n">
-        <v>1.776561813229858</v>
+        <v>1.77656181322986</v>
       </c>
       <c r="I46" t="n">
-        <v>6.009065928593423</v>
+        <v>6.009065928593428</v>
       </c>
       <c r="J46" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338303</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650058</v>
+        <v>23.2151942465006</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388659</v>
+        <v>29.70745592388661</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906177</v>
+        <v>31.3223469790618</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678752</v>
+        <v>30.57757157678755</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453765</v>
+        <v>28.24333647453768</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111454</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.73201519597159</v>
+        <v>16.7320151959716</v>
       </c>
       <c r="R46" t="n">
-        <v>8.98453448694772</v>
+        <v>8.984534486947727</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975086</v>
+        <v>3.482279136975089</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8537669245583154</v>
+        <v>0.8537669245583162</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840405</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,19 +35404,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.39929300540031</v>
+        <v>30.39929300540027</v>
       </c>
       <c r="J11" t="n">
-        <v>68.3970259880698</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>68.39702598806994</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>58.87461752662945</v>
       </c>
       <c r="M11" t="n">
-        <v>56.00058497206299</v>
+        <v>6.291577300445891</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35428,13 +35428,13 @@
         <v>57.05548430630976</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>49.80658962388626</v>
       </c>
       <c r="R11" t="n">
-        <v>36.23621915821167</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.73598032068649</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>52.22885684391464</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35513,7 +35513,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>52.22885684391449</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>68.39702598806994</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>68.39702598806994</v>
       </c>
       <c r="L13" t="n">
-        <v>68.3970259880698</v>
+        <v>54.16910705312926</v>
       </c>
       <c r="M13" t="n">
-        <v>68.3970259880698</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.16910705312915</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>30.39929300540027</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>27.52526045083455</v>
+        <v>60.52653654573125</v>
       </c>
       <c r="L14" t="n">
-        <v>58.87461752662941</v>
+        <v>58.87461752662945</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>52.6271146849106</v>
       </c>
       <c r="O14" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="P14" t="n">
-        <v>57.05548430630974</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>36.23621915821164</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068647</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35708,7 +35708,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>38.24046249238176</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -35750,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>52.22885684391456</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35765,7 +35765,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>13.98839435153289</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -35784,22 +35784,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>54.16910705312893</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.93020849969853</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>58.59251376432418</v>
       </c>
       <c r="I16" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35826,7 +35826,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.04341077717658</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35875,10 +35875,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>16.94827559451693</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>26.68833871397953</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35902,22 +35902,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.63350978653179</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36112,7 +36112,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.94827559451692</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -36121,40 +36121,40 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>26.68833871397961</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>65.63350978653175</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39702598806998</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>68.39702598806998</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>21.99689547803524</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36367,28 +36367,28 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>68.39702598807</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>65.63350978653177</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.63350978653175</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>68.39702598807</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="U23" t="n">
-        <v>68.39702598807</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.96438733281771</v>
+        <v>32.96438733281773</v>
       </c>
       <c r="J26" t="n">
         <v>258.1636583777747</v>
       </c>
       <c r="K26" t="n">
-        <v>63.09163087314865</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>433.3080812606694</v>
+        <v>61.43971185404691</v>
       </c>
       <c r="M26" t="n">
-        <v>74.64632922401738</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="N26" t="n">
-        <v>76.82183138438852</v>
+        <v>198.276191491309</v>
       </c>
       <c r="O26" t="n">
-        <v>197.8261534833283</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>394.2912351320691</v>
+        <v>394.2912351320692</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.16415595017593</v>
+        <v>273.1792742376046</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1463901535308</v>
+        <v>38.80131348562909</v>
       </c>
       <c r="S26" t="n">
-        <v>25.30107464810389</v>
+        <v>25.3010746481039</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36656,7 +36656,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36726,13 +36726,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>40.9314267967448</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>72.00955177290925</v>
+        <v>19.58445696194956</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36741,13 +36741,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>53.32534714817462</v>
       </c>
       <c r="H28" t="n">
         <v>61.15760809174164</v>
       </c>
       <c r="I28" t="n">
-        <v>43.97166959694088</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36777,7 +36777,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.139990462981169</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.96438733281771</v>
+        <v>32.96438733281773</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>258.1636583777747</v>
       </c>
       <c r="K29" t="n">
         <v>400.2028599471601</v>
       </c>
       <c r="L29" t="n">
-        <v>204.0018515615558</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="M29" t="n">
-        <v>74.64632922401738</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>433.3080812606694</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>433.3080812606694</v>
+        <v>71.72427447050293</v>
       </c>
       <c r="P29" t="n">
-        <v>59.62057863372716</v>
+        <v>113.7349273918609</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.37168395130367</v>
+        <v>273.1792742376046</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S29" t="n">
-        <v>25.30107464810389</v>
+        <v>25.3010746481039</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36890,7 +36890,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36972,16 +36972,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>74.04049411422943</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>42.08339536012675</v>
       </c>
       <c r="H31" t="n">
-        <v>61.15760809174164</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.440784528667226</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>81.51975497597034</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37008,13 +37008,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.61424698257099</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>56.60850510459403</v>
       </c>
       <c r="S31" t="n">
-        <v>2.139990462981166</v>
+        <v>2.139990462981169</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>32.96438733281771</v>
+        <v>32.9643873328177</v>
       </c>
       <c r="J32" t="n">
-        <v>82.30317859881796</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>63.09163087314867</v>
       </c>
       <c r="L32" t="n">
-        <v>146.4615887666837</v>
+        <v>61.43971185404688</v>
       </c>
       <c r="M32" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="N32" t="n">
-        <v>76.82183138438852</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="O32" t="n">
-        <v>433.3080812606695</v>
+        <v>333.9812861794882</v>
       </c>
       <c r="P32" t="n">
-        <v>173.2761168446405</v>
+        <v>59.62057863372719</v>
       </c>
       <c r="Q32" t="n">
-        <v>273.1792742376045</v>
+        <v>165.5637056238222</v>
       </c>
       <c r="R32" t="n">
-        <v>38.80131348562907</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S32" t="n">
-        <v>25.30107464810389</v>
+        <v>25.30107464810387</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37166,13 +37166,13 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>44.37732844655492</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -37206,7 +37206,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>72.00955177290922</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15.09952079399221</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.10907256690126</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.02975689469049</v>
+        <v>90.02975689469048</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.08398553735948</v>
+        <v>55.08398553735953</v>
       </c>
       <c r="J35" t="n">
-        <v>112.5275922534268</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K35" t="n">
         <v>364.9110552725996</v>
       </c>
       <c r="L35" t="n">
-        <v>83.55931005858861</v>
+        <v>220.9301138667277</v>
       </c>
       <c r="M35" t="n">
-        <v>96.76592742855915</v>
+        <v>96.76592742855925</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>93.84387267504464</v>
+        <v>93.84387267504474</v>
       </c>
       <c r="P35" t="n">
         <v>364.9110552725996</v>
       </c>
       <c r="Q35" t="n">
-        <v>74.49128215584545</v>
+        <v>74.49128215584551</v>
       </c>
       <c r="R35" t="n">
-        <v>129.2659883580726</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.42067285264567</v>
+        <v>47.4206728526457</v>
       </c>
       <c r="T35" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37397,13 +37397,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.993807017681495</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>42.23187945694394</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>30.99063798137748</v>
+        <v>73.34897139500052</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>24.25958866752297</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.38604262420216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.08398553735948</v>
+        <v>55.08398553735953</v>
       </c>
       <c r="J38" t="n">
-        <v>280.2832565823164</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K38" t="n">
-        <v>85.21122907769042</v>
+        <v>85.2112290776905</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>96.76592742855915</v>
+        <v>364.9110552725996</v>
       </c>
       <c r="N38" t="n">
-        <v>98.94142958893029</v>
+        <v>98.94142958893039</v>
       </c>
       <c r="O38" t="n">
-        <v>364.9110552725996</v>
+        <v>93.84387267504474</v>
       </c>
       <c r="P38" t="n">
-        <v>258.7509916786243</v>
+        <v>216.7259359247937</v>
       </c>
       <c r="Q38" t="n">
-        <v>74.49128215584545</v>
+        <v>295.2988724421464</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017084</v>
+        <v>60.9209116901709</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264567</v>
+        <v>47.4206728526457</v>
       </c>
       <c r="T38" t="n">
-        <v>22.11959820454176</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.993807017681495</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37680,13 +37680,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>94.12914997745105</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>96.97569508216588</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>3.479410085072437</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.6328649803575936</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.08398553735948</v>
+        <v>55.0839855373595</v>
       </c>
       <c r="J41" t="n">
-        <v>104.4227768033597</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K41" t="n">
+        <v>85.21122907769048</v>
+      </c>
+      <c r="L41" t="n">
+        <v>83.55931005858868</v>
+      </c>
+      <c r="M41" t="n">
+        <v>96.76592742855922</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>364.9110552725996</v>
       </c>
-      <c r="L41" t="n">
-        <v>83.55931005858861</v>
-      </c>
-      <c r="M41" t="n">
-        <v>185.3195153833037</v>
-      </c>
-      <c r="N41" t="n">
-        <v>364.9110552725996</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>81.74017683826894</v>
+        <v>81.74017683826899</v>
       </c>
       <c r="Q41" t="n">
-        <v>74.49128215584545</v>
+        <v>266.8842165265418</v>
       </c>
       <c r="R41" t="n">
-        <v>60.92091169017084</v>
+        <v>60.92091169017087</v>
       </c>
       <c r="S41" t="n">
         <v>47.42067285264567</v>
@@ -37844,7 +37844,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>6.993807017681523</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6.99380701768152</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>97.60856006252358</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>55.08398553735951</v>
+        <v>55.0839855373595</v>
       </c>
       <c r="J44" t="n">
-        <v>104.4227768033598</v>
+        <v>280.2832565823165</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>85.21122907769048</v>
       </c>
       <c r="L44" t="n">
-        <v>83.55931005858864</v>
+        <v>83.55931005858868</v>
       </c>
       <c r="M44" t="n">
-        <v>185.3195153833033</v>
+        <v>96.76592742855922</v>
       </c>
       <c r="N44" t="n">
-        <v>364.9110552725996</v>
+        <v>98.94142958893036</v>
       </c>
       <c r="O44" t="n">
         <v>364.9110552725996</v>
       </c>
       <c r="P44" t="n">
-        <v>81.74017683826897</v>
+        <v>173.2761168446406</v>
       </c>
       <c r="Q44" t="n">
         <v>74.49128215584548</v>
       </c>
       <c r="R44" t="n">
-        <v>60.92091169017087</v>
+        <v>62.8364764655654</v>
       </c>
       <c r="S44" t="n">
-        <v>47.42067285264569</v>
+        <v>47.42067285264567</v>
       </c>
       <c r="T44" t="n">
-        <v>22.11959820454179</v>
+        <v>22.11959820454176</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>6.993807017681491</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38129,7 +38129,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>6.993807017681523</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>63.05102500128658</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.60856006252349</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -38214,10 +38214,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>10.17149243703485</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.38604262420216</v>
       </c>
     </row>
   </sheetData>
